--- a/supplementary_material/SupplementaryFile5_k6m1BHO.xlsx
+++ b/supplementary_material/SupplementaryFile5_k6m1BHO.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23513"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\sziemaj\Articles\JoC\Covid19\article\Supplementary_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700AE9C1-9EB6-4482-8222-BA771C4E412B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{700AE9C1-9EB6-4482-8222-BA771C4E412B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{846C1FD9-9CD1-42D2-89A5-2BBEBD2F5831}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PCC matrix" sheetId="1" r:id="rId1"/>
     <sheet name="clusters" sheetId="2" r:id="rId2"/>
     <sheet name="cluster stats" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -251,13 +260,28 @@
     <t>BetaCoV_Wuhan_IPBCAMS-WH-05_2020</t>
   </si>
   <si>
+    <t>SARS-CoV-2_Felis_catus_BEL_BE-MG-0320_2020</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2_Felis_catus_FRA_Env-Ba_2020</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2_Felis_catus_FRA_Env-Di_2020</t>
+  </si>
+  <si>
     <t>HZ-1</t>
+  </si>
+  <si>
+    <t>Pangolin_coronavirus_isolate_MP789_genomic_sequence</t>
   </si>
   <si>
     <t>SARS-CoV-2_NTU01_TWN_human_2020</t>
   </si>
   <si>
     <t>SARS-CoV-2_NTU02_TWN_human_2020</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2_canine_HKG_20-02756_2020_ORF1ab_polyprotein_(ORF1ab)_and_ORF1a_polyprotein_(ORF1ab)_genes</t>
   </si>
   <si>
     <t>SARS-CoV-2_human_AUS_VIC01_2020</t>
@@ -449,6 +473,51 @@
     <t>bat_SARS_coronavirus_HKU3-3</t>
   </si>
   <si>
+    <t>SARS-CoV-2_canine_HKG_20-03695_2020</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2_mink_NED_NB01_01KS_2020</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2_mink_NED_NB01_02KS_2020</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2_mink_NED_NB01_03KS_2020</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2_mink_NED_NB01_04KS_2020</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2_mink_NED_NB02_03KS_2020</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2_mink_NED_NB02_06KS_2020</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2_mink_NED_NB02_07KS_2020</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2_mink_NED_NB02_13KS_2020</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2_mink_NED_NB02_16RS_2020</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2_mink_NED_NB02_index_2020</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2_mink_NED_NB03_index_2020</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2_mink_NED_NB04_index_2020</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2_mink_NLD_1_2020</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2_tiger_NY_040420_2020</t>
+  </si>
+  <si>
     <t>strain</t>
   </si>
   <si>
@@ -478,72 +547,12 @@
   <si>
     <t>Inf</t>
   </si>
-  <si>
-    <t>Felis_catus_BEL_BE-MG-0320_2020</t>
-  </si>
-  <si>
-    <t>Felis_catus_FRA_Env-Ba_2020</t>
-  </si>
-  <si>
-    <t>Felis_catus_FRA_Env-Di_2020</t>
-  </si>
-  <si>
-    <t>Pangolin_coronavirus_isolate_MP789_genomic_sequence</t>
-  </si>
-  <si>
-    <t>SARS-CoV-2_canine_HKG_20-02756_2020</t>
-  </si>
-  <si>
-    <t>canine_HKG_20-03695_2020</t>
-  </si>
-  <si>
-    <t>mink_NED_NB01_01KS_2020</t>
-  </si>
-  <si>
-    <t>mink_NED_NB01_02KS_2020</t>
-  </si>
-  <si>
-    <t>mink_NED_NB01_03KS_2020</t>
-  </si>
-  <si>
-    <t>mink_NED_NB01_04KS_2020</t>
-  </si>
-  <si>
-    <t>mink_NED_NB02_03KS_2020</t>
-  </si>
-  <si>
-    <t>mink_NED_NB02_06KS_2020</t>
-  </si>
-  <si>
-    <t>mink_NED_NB02_07KS_2020</t>
-  </si>
-  <si>
-    <t>mink_NED_NB02_13KS_2020</t>
-  </si>
-  <si>
-    <t>mink_NED_NB02_16RS_2020</t>
-  </si>
-  <si>
-    <t>mink_NED_NB02_index_2020</t>
-  </si>
-  <si>
-    <t>mink_NED_NB03_index_2020</t>
-  </si>
-  <si>
-    <t>mink_NED_NB04_index_2020</t>
-  </si>
-  <si>
-    <t>mink_NLD_1_2020</t>
-  </si>
-  <si>
-    <t>tiger_NY_040420_2020</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -866,14 +875,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FE161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A83" sqref="A1:FE161"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:161">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1097,265 +1108,265 @@
         <v>73</v>
       </c>
       <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EK1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EL1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EM1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="ER1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ES1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="ET1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="EU1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EV1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="EW1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="EX1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="CA1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="CB1" s="1" t="s">
+      <c r="EY1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="CC1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CE1" s="1" t="s">
+      <c r="EZ1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="CF1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
+      <c r="FA1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="ER1" s="1" t="s">
+      <c r="FB1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="ES1" s="1" t="s">
+      <c r="FC1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="ET1" s="1" t="s">
+      <c r="FD1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="EU1" s="1" t="s">
+      <c r="FE1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="EV1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>169</v>
-      </c>
     </row>
-    <row r="2" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:161">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1840,7 +1851,7 @@
         <v>0.99705665359462803</v>
       </c>
     </row>
-    <row r="3" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:161">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2325,7 +2336,7 @@
         <v>0.99741982741540003</v>
       </c>
     </row>
-    <row r="4" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:161">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2810,7 +2821,7 @@
         <v>0.99743274482965105</v>
       </c>
     </row>
-    <row r="5" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:161">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3295,7 +3306,7 @@
         <v>0.99654062563287804</v>
       </c>
     </row>
-    <row r="6" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:161">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3780,7 +3791,7 @@
         <v>0.99762377797227497</v>
       </c>
     </row>
-    <row r="7" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:161">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -4265,7 +4276,7 @@
         <v>0.99814282048273295</v>
       </c>
     </row>
-    <row r="8" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:161">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4750,7 +4761,7 @@
         <v>0.99814282048273295</v>
       </c>
     </row>
-    <row r="9" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:161">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -5235,7 +5246,7 @@
         <v>0.99802760295914195</v>
       </c>
     </row>
-    <row r="10" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:161">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -5720,7 +5731,7 @@
         <v>0.99808090038143904</v>
       </c>
     </row>
-    <row r="11" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:161">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -6205,7 +6216,7 @@
         <v>0.99664125275628301</v>
       </c>
     </row>
-    <row r="12" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:161">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -6690,7 +6701,7 @@
         <v>0.99829457782522502</v>
       </c>
     </row>
-    <row r="13" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:161">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -7175,7 +7186,7 @@
         <v>0.99817013042957003</v>
       </c>
     </row>
-    <row r="14" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:161">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -7660,7 +7671,7 @@
         <v>0.99595497614527195</v>
       </c>
     </row>
-    <row r="15" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:161">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -8145,7 +8156,7 @@
         <v>0.99664278481851298</v>
       </c>
     </row>
-    <row r="16" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:161">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -8630,7 +8641,7 @@
         <v>0.99827804061147396</v>
       </c>
     </row>
-    <row r="17" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:161">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -9115,7 +9126,7 @@
         <v>0.997098425953026</v>
       </c>
     </row>
-    <row r="18" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:161">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -9600,7 +9611,7 @@
         <v>0.99727664864829402</v>
       </c>
     </row>
-    <row r="19" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:161">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -10085,7 +10096,7 @@
         <v>0.99673647645280306</v>
       </c>
     </row>
-    <row r="20" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:161">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -10570,7 +10581,7 @@
         <v>0.99811554988954698</v>
       </c>
     </row>
-    <row r="21" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:161">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -11055,7 +11066,7 @@
         <v>0.99706915283953002</v>
       </c>
     </row>
-    <row r="22" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:161">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -11540,7 +11551,7 @@
         <v>0.997738641267643</v>
       </c>
     </row>
-    <row r="23" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:161">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -12025,7 +12036,7 @@
         <v>0.997738641267643</v>
       </c>
     </row>
-    <row r="24" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:161">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -12510,7 +12521,7 @@
         <v>0.99823178780445998</v>
       </c>
     </row>
-    <row r="25" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:161">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -12995,7 +13006,7 @@
         <v>0.99830925523104797</v>
       </c>
     </row>
-    <row r="26" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:161">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -13480,7 +13491,7 @@
         <v>0.99830925523104797</v>
       </c>
     </row>
-    <row r="27" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:161">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -13965,7 +13976,7 @@
         <v>0.66941276072019995</v>
       </c>
     </row>
-    <row r="28" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:161">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -14450,7 +14461,7 @@
         <v>0.66642323612559395</v>
       </c>
     </row>
-    <row r="29" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:161">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -14935,7 +14946,7 @@
         <v>0.66718323656060496</v>
       </c>
     </row>
-    <row r="30" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:161">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -15420,7 +15431,7 @@
         <v>0.66894245814638298</v>
       </c>
     </row>
-    <row r="31" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:161">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -15905,7 +15916,7 @@
         <v>0.66795325867984401</v>
       </c>
     </row>
-    <row r="32" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:161">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -16390,7 +16401,7 @@
         <v>0.66307292746624202</v>
       </c>
     </row>
-    <row r="33" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:161">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -16875,7 +16886,7 @@
         <v>0.664387962180368</v>
       </c>
     </row>
-    <row r="34" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:161">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -17360,7 +17371,7 @@
         <v>0.66793006635468399</v>
       </c>
     </row>
-    <row r="35" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:161">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -17845,7 +17856,7 @@
         <v>0.66729021626921803</v>
       </c>
     </row>
-    <row r="36" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:161">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -18330,7 +18341,7 @@
         <v>0.67967603597963999</v>
       </c>
     </row>
-    <row r="37" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:161">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -18815,7 +18826,7 @@
         <v>0.66740639837077398</v>
       </c>
     </row>
-    <row r="38" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:161">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -19300,7 +19311,7 @@
         <v>0.672748874336073</v>
       </c>
     </row>
-    <row r="39" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:161">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -19785,7 +19796,7 @@
         <v>0.664587817397156</v>
       </c>
     </row>
-    <row r="40" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:161">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -20270,7 +20281,7 @@
         <v>0.67343683593071102</v>
       </c>
     </row>
-    <row r="41" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:161">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -20755,7 +20766,7 @@
         <v>0.658238775389966</v>
       </c>
     </row>
-    <row r="42" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:161">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -21240,7 +21251,7 @@
         <v>0.66656756635638603</v>
       </c>
     </row>
-    <row r="43" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:161">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -21725,7 +21736,7 @@
         <v>0.72165880447390196</v>
       </c>
     </row>
-    <row r="44" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:161">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -22210,7 +22221,7 @@
         <v>0.71628026908926401</v>
       </c>
     </row>
-    <row r="45" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:161">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -22695,7 +22706,7 @@
         <v>0.67046232003531303</v>
       </c>
     </row>
-    <row r="46" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:161">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -23180,7 +23191,7 @@
         <v>0.64695404187543004</v>
       </c>
     </row>
-    <row r="47" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:161">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -23665,7 +23676,7 @@
         <v>0.64699322400253201</v>
       </c>
     </row>
-    <row r="48" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:161">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -24150,7 +24161,7 @@
         <v>0.65068648834009202</v>
       </c>
     </row>
-    <row r="49" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:161">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -24635,7 +24646,7 @@
         <v>0.65173278945716195</v>
       </c>
     </row>
-    <row r="50" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:161">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -25120,7 +25131,7 @@
         <v>0.64780104168885499</v>
       </c>
     </row>
-    <row r="51" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:161">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -25605,7 +25616,7 @@
         <v>0.64951342963835301</v>
       </c>
     </row>
-    <row r="52" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:161">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -26090,7 +26101,7 @@
         <v>0.64823009735734505</v>
       </c>
     </row>
-    <row r="53" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:161">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -26575,7 +26586,7 @@
         <v>0.64967724719785303</v>
       </c>
     </row>
-    <row r="54" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:161">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -27060,7 +27071,7 @@
         <v>0.66285897128203997</v>
       </c>
     </row>
-    <row r="55" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:161">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -27545,7 +27556,7 @@
         <v>0.66333015225151803</v>
       </c>
     </row>
-    <row r="56" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:161">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -28030,7 +28041,7 @@
         <v>0.64725212289354705</v>
       </c>
     </row>
-    <row r="57" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:161">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -28515,7 +28526,7 @@
         <v>0.66007695930944299</v>
       </c>
     </row>
-    <row r="58" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:161">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -29000,7 +29011,7 @@
         <v>0.66773917711834496</v>
       </c>
     </row>
-    <row r="59" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:161">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -29485,7 +29496,7 @@
         <v>0.67485891271474496</v>
       </c>
     </row>
-    <row r="60" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:161">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -29970,7 +29981,7 @@
         <v>0.66213292401869706</v>
       </c>
     </row>
-    <row r="61" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:161">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -30455,7 +30466,7 @@
         <v>0.66989832841333996</v>
       </c>
     </row>
-    <row r="62" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:161">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -30940,7 +30951,7 @@
         <v>0.62671594112932505</v>
       </c>
     </row>
-    <row r="63" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:161">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
@@ -31425,7 +31436,7 @@
         <v>0.560752554471039</v>
       </c>
     </row>
-    <row r="64" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:161">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
@@ -31910,7 +31921,7 @@
         <v>0.57235095663647695</v>
       </c>
     </row>
-    <row r="65" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:161">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
@@ -32395,7 +32406,7 @@
         <v>0.568136509191974</v>
       </c>
     </row>
-    <row r="66" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:161">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
@@ -32880,7 +32891,7 @@
         <v>0.67056432484428097</v>
       </c>
     </row>
-    <row r="67" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:161">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
@@ -33365,7 +33376,7 @@
         <v>0.85842780077249603</v>
       </c>
     </row>
-    <row r="68" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:161">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
@@ -33850,7 +33861,7 @@
         <v>0.66352841818667696</v>
       </c>
     </row>
-    <row r="69" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:161">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
@@ -34335,7 +34346,7 @@
         <v>0.66124334627693804</v>
       </c>
     </row>
-    <row r="70" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:161">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
@@ -34820,7 +34831,7 @@
         <v>0.66198570554367497</v>
       </c>
     </row>
-    <row r="71" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:161">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -35305,7 +35316,7 @@
         <v>0.99774609938329994</v>
       </c>
     </row>
-    <row r="72" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:161">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
@@ -35790,7 +35801,7 @@
         <v>0.99708839066411803</v>
       </c>
     </row>
-    <row r="73" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:161">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
@@ -36275,7 +36286,7 @@
         <v>0.99826693099808195</v>
       </c>
     </row>
-    <row r="74" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:161">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -36760,7 +36771,7 @@
         <v>0.99830848582146003</v>
       </c>
     </row>
-    <row r="75" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:161">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -37245,9 +37256,9 @@
         <v>0.99830765309095304</v>
       </c>
     </row>
-    <row r="76" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:161">
       <c r="A76" s="1" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>0.99703076813583102</v>
@@ -37730,9 +37741,9 @@
         <v>0.99779343842034995</v>
       </c>
     </row>
-    <row r="77" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:161">
       <c r="A77" s="1" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>0.997147010116752</v>
@@ -38215,9 +38226,9 @@
         <v>0.99814277338877799</v>
       </c>
     </row>
-    <row r="78" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:161">
       <c r="A78" s="1" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>0.997147010116752</v>
@@ -38700,9 +38711,9 @@
         <v>0.99814277338877799</v>
       </c>
     </row>
-    <row r="79" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:161">
       <c r="A79" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>0.99798485870915499</v>
@@ -39185,9 +39196,9 @@
         <v>0.99746080735086196</v>
       </c>
     </row>
-    <row r="80" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:161">
       <c r="A80" s="1" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>0.73215785560540303</v>
@@ -39670,9 +39681,9 @@
         <v>0.72852375862716001</v>
       </c>
     </row>
-    <row r="81" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:161">
       <c r="A81" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>0.999327205672918</v>
@@ -40155,9 +40166,9 @@
         <v>0.99778614219839101</v>
       </c>
     </row>
-    <row r="82" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:161">
       <c r="A82" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>0.99867368597659301</v>
@@ -40640,9 +40651,9 @@
         <v>0.99818868568492702</v>
       </c>
     </row>
-    <row r="83" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:161">
       <c r="A83" s="1" t="s">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>0.96108703049210198</v>
@@ -41125,9 +41136,9 @@
         <v>0.962341348112698</v>
       </c>
     </row>
-    <row r="84" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:161">
       <c r="A84" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>0.99681681796005805</v>
@@ -41610,9 +41621,9 @@
         <v>0.99635582299152903</v>
       </c>
     </row>
-    <row r="85" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:161">
       <c r="A85" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>0.99716137127833304</v>
@@ -42095,9 +42106,9 @@
         <v>0.99668099244855302</v>
       </c>
     </row>
-    <row r="86" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:161">
       <c r="A86" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>0.99915547143114303</v>
@@ -42580,9 +42591,9 @@
         <v>0.99759598327050603</v>
       </c>
     </row>
-    <row r="87" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:161">
       <c r="A87" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>0.99915547143114303</v>
@@ -43065,9 +43076,9 @@
         <v>0.99759598327050603</v>
       </c>
     </row>
-    <row r="88" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:161">
       <c r="A88" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>0.99907245114388998</v>
@@ -43550,9 +43561,9 @@
         <v>0.99751509904945401</v>
       </c>
     </row>
-    <row r="89" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:161">
       <c r="A89" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>0.99915547143114303</v>
@@ -44035,9 +44046,9 @@
         <v>0.99759598327050603</v>
       </c>
     </row>
-    <row r="90" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:161">
       <c r="A90" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>0.99831365742568301</v>
@@ -44520,9 +44531,9 @@
         <v>0.99782728440101198</v>
       </c>
     </row>
-    <row r="91" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:161">
       <c r="A91" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>0.99850561407949201</v>
@@ -45005,9 +45016,9 @@
         <v>0.99801198576596595</v>
       </c>
     </row>
-    <row r="92" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:161">
       <c r="A92" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>0.99845066929278903</v>
@@ -45490,9 +45501,9 @@
         <v>0.99794320115104695</v>
       </c>
     </row>
-    <row r="93" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:161">
       <c r="A93" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>0.99856373682309396</v>
@@ -45975,9 +45986,9 @@
         <v>0.99695360655546095</v>
       </c>
     </row>
-    <row r="94" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:161">
       <c r="A94" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>0.99855213210091598</v>
@@ -46460,9 +46471,9 @@
         <v>0.99807536085787696</v>
       </c>
     </row>
-    <row r="95" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:161">
       <c r="A95" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>0.99867142813287102</v>
@@ -46945,9 +46956,9 @@
         <v>0.99813444617034197</v>
       </c>
     </row>
-    <row r="96" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:161">
       <c r="A96" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>0.99912944189474195</v>
@@ -47430,9 +47441,9 @@
         <v>0.99757951617668505</v>
       </c>
     </row>
-    <row r="97" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:161">
       <c r="A97" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B97">
         <v>0.99948537560643103</v>
@@ -47915,9 +47926,9 @@
         <v>0.99729885948300601</v>
       </c>
     </row>
-    <row r="98" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:161">
       <c r="A98" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>0.998478575102696</v>
@@ -48400,9 +48411,9 @@
         <v>0.99794902355329396</v>
       </c>
     </row>
-    <row r="99" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:161">
       <c r="A99" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>0.99810695879677902</v>
@@ -48885,9 +48896,9 @@
         <v>0.99764270233790997</v>
       </c>
     </row>
-    <row r="100" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:161">
       <c r="A100" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>0.997944081465858</v>
@@ -49370,9 +49381,9 @@
         <v>0.99731520175367605</v>
       </c>
     </row>
-    <row r="101" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:161">
       <c r="A101" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>0.99647771192304502</v>
@@ -49855,9 +49866,9 @@
         <v>0.99599273417358902</v>
       </c>
     </row>
-    <row r="102" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:161">
       <c r="A102" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>0.99918669147985395</v>
@@ -50340,9 +50351,9 @@
         <v>0.99793721648960898</v>
       </c>
     </row>
-    <row r="103" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:161">
       <c r="A103" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>0.99872956598725704</v>
@@ -50825,9 +50836,9 @@
         <v>0.99822915657203704</v>
       </c>
     </row>
-    <row r="104" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:161">
       <c r="A104" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B104">
         <v>0.99870333822528901</v>
@@ -51310,9 +51321,9 @@
         <v>0.99818694360007898</v>
       </c>
     </row>
-    <row r="105" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:161">
       <c r="A105" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>0.99869938003049796</v>
@@ -51795,9 +51806,9 @@
         <v>0.99820033456151802</v>
       </c>
     </row>
-    <row r="106" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:161">
       <c r="A106" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B106">
         <v>0.99876527122719005</v>
@@ -52280,9 +52291,9 @@
         <v>0.99827804061147396</v>
       </c>
     </row>
-    <row r="107" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:161">
       <c r="A107" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B107">
         <v>0.99787481690660795</v>
@@ -52765,9 +52776,9 @@
         <v>0.99746998173173196</v>
       </c>
     </row>
-    <row r="108" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:161">
       <c r="A108" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B108">
         <v>0.99876527122719005</v>
@@ -53250,9 +53261,9 @@
         <v>0.99827804061147396</v>
       </c>
     </row>
-    <row r="109" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:161">
       <c r="A109" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>0.99876527122719005</v>
@@ -53735,9 +53746,9 @@
         <v>0.99827804061147396</v>
       </c>
     </row>
-    <row r="110" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:161">
       <c r="A110" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>0.99866944750157405</v>
@@ -54220,9 +54231,9 @@
         <v>0.99818521753863099</v>
       </c>
     </row>
-    <row r="111" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:161">
       <c r="A111" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B111">
         <v>0.99853287617942899</v>
@@ -54705,9 +54716,9 @@
         <v>0.99803544385634901</v>
       </c>
     </row>
-    <row r="112" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:161">
       <c r="A112" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B112">
         <v>0.99876527122719005</v>
@@ -55190,9 +55201,9 @@
         <v>0.99827804061147396</v>
       </c>
     </row>
-    <row r="113" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:161">
       <c r="A113" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B113">
         <v>0.99736303890599498</v>
@@ -55675,9 +55686,9 @@
         <v>0.99691585387103898</v>
       </c>
     </row>
-    <row r="114" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:161">
       <c r="A114" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B114">
         <v>0.99701516830591996</v>
@@ -56160,9 +56171,9 @@
         <v>0.99648953326466805</v>
       </c>
     </row>
-    <row r="115" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:161">
       <c r="A115" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B115">
         <v>0.99876527122719005</v>
@@ -56645,9 +56656,9 @@
         <v>0.99827804061147396</v>
       </c>
     </row>
-    <row r="116" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:161">
       <c r="A116" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B116">
         <v>0.998044380337472</v>
@@ -57130,9 +57141,9 @@
         <v>0.99749937321530302</v>
       </c>
     </row>
-    <row r="117" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:161">
       <c r="A117" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B117">
         <v>0.99876527122719005</v>
@@ -57615,9 +57626,9 @@
         <v>0.99827804061147396</v>
       </c>
     </row>
-    <row r="118" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:161">
       <c r="A118" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B118">
         <v>0.99818221470576096</v>
@@ -58100,9 +58111,9 @@
         <v>0.99763997875307298</v>
       </c>
     </row>
-    <row r="119" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:161">
       <c r="A119" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B119">
         <v>0.99876527122719005</v>
@@ -58585,9 +58596,9 @@
         <v>0.99827804061147396</v>
       </c>
     </row>
-    <row r="120" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:161">
       <c r="A120" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B120">
         <v>0.998683980067951</v>
@@ -59070,9 +59081,9 @@
         <v>0.99820606621028596</v>
       </c>
     </row>
-    <row r="121" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:161">
       <c r="A121" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B121">
         <v>0.99860778778784098</v>
@@ -59555,9 +59566,9 @@
         <v>0.99813462281973397</v>
       </c>
     </row>
-    <row r="122" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:161">
       <c r="A122" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B122">
         <v>0.99874574578363196</v>
@@ -60040,9 +60051,9 @@
         <v>0.99824288738621803</v>
       </c>
     </row>
-    <row r="123" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:161">
       <c r="A123" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B123">
         <v>0.99876527122719005</v>
@@ -60525,9 +60536,9 @@
         <v>0.99827804061147396</v>
       </c>
     </row>
-    <row r="124" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:161">
       <c r="A124" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B124">
         <v>0.996807109088656</v>
@@ -61010,9 +61021,9 @@
         <v>0.99846773954211498</v>
       </c>
     </row>
-    <row r="125" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:161">
       <c r="A125" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B125">
         <v>0.99928097787855397</v>
@@ -61495,9 +61506,9 @@
         <v>0.997738641267643</v>
       </c>
     </row>
-    <row r="126" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:161">
       <c r="A126" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B126">
         <v>0.99913540014845104</v>
@@ -61980,9 +61991,9 @@
         <v>0.99760187153397595</v>
       </c>
     </row>
-    <row r="127" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:161">
       <c r="A127" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B127">
         <v>0.996807018616365</v>
@@ -62465,9 +62476,9 @@
         <v>0.99633605491024402</v>
       </c>
     </row>
-    <row r="128" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:161">
       <c r="A128" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B128">
         <v>0.99911164589788304</v>
@@ -62950,9 +62961,9 @@
         <v>0.99758372401159401</v>
       </c>
     </row>
-    <row r="129" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:161">
       <c r="A129" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B129">
         <v>0.99947776658607801</v>
@@ -63435,9 +63446,9 @@
         <v>0.99725417005160499</v>
       </c>
     </row>
-    <row r="130" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:161">
       <c r="A130" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B130">
         <v>0.99911054750779105</v>
@@ -63920,9 +63931,9 @@
         <v>0.99758855423273496</v>
       </c>
     </row>
-    <row r="131" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:161">
       <c r="A131" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B131">
         <v>0.99854484075538297</v>
@@ -64405,9 +64416,9 @@
         <v>0.99801502447736301</v>
       </c>
     </row>
-    <row r="132" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:161">
       <c r="A132" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B132">
         <v>0.99853996231915598</v>
@@ -64890,9 +64901,9 @@
         <v>0.99797528404847302</v>
       </c>
     </row>
-    <row r="133" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:161">
       <c r="A133" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B133">
         <v>0.65532309081735995</v>
@@ -65375,9 +65386,9 @@
         <v>0.65344526710123596</v>
       </c>
     </row>
-    <row r="134" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:161">
       <c r="A134" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B134">
         <v>0.66898295606885105</v>
@@ -65860,9 +65871,9 @@
         <v>0.66859652101002798</v>
       </c>
     </row>
-    <row r="135" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:161">
       <c r="A135" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B135">
         <v>0.99554482871581795</v>
@@ -66345,9 +66356,9 @@
         <v>0.99445921296759898</v>
       </c>
     </row>
-    <row r="136" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:161">
       <c r="A136" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B136">
         <v>0.99571011565012202</v>
@@ -66830,9 +66841,9 @@
         <v>0.99327465240547497</v>
       </c>
     </row>
-    <row r="137" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:161">
       <c r="A137" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B137">
         <v>0.99869212942781005</v>
@@ -67315,9 +67326,9 @@
         <v>0.99729543878996396</v>
       </c>
     </row>
-    <row r="138" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:161">
       <c r="A138" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B138">
         <v>0.99769811824598298</v>
@@ -67800,9 +67811,9 @@
         <v>0.995262290032223</v>
       </c>
     </row>
-    <row r="139" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:161">
       <c r="A139" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B139">
         <v>0.99907980062706303</v>
@@ -68285,9 +68296,9 @@
         <v>0.99779858496723794</v>
       </c>
     </row>
-    <row r="140" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:161">
       <c r="A140" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B140">
         <v>0.99879262349741804</v>
@@ -68770,9 +68781,9 @@
         <v>0.99830848582146003</v>
       </c>
     </row>
-    <row r="141" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:161">
       <c r="A141" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B141">
         <v>0.99868653993304402</v>
@@ -69255,9 +69266,9 @@
         <v>0.99816787270780005</v>
       </c>
     </row>
-    <row r="142" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:161">
       <c r="A142" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B142">
         <v>0.99879503544813197</v>
@@ -69740,9 +69751,9 @@
         <v>0.99827214300434397</v>
       </c>
     </row>
-    <row r="143" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:161">
       <c r="A143" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B143">
         <v>0.99873167264881002</v>
@@ -70225,9 +70236,9 @@
         <v>0.99819524781746305</v>
       </c>
     </row>
-    <row r="144" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:161">
       <c r="A144" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B144">
         <v>0.99879262349741804</v>
@@ -70710,9 +70721,9 @@
         <v>0.99830848582146003</v>
       </c>
     </row>
-    <row r="145" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:161">
       <c r="A145" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B145">
         <v>0.64947310895432697</v>
@@ -71195,9 +71206,9 @@
         <v>0.64965040442908395</v>
       </c>
     </row>
-    <row r="146" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:161">
       <c r="A146" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B146">
         <v>0.64667689716217502</v>
@@ -71680,9 +71691,9 @@
         <v>0.64663415993586604</v>
       </c>
     </row>
-    <row r="147" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:161">
       <c r="A147" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B147">
         <v>0.99654701286672098</v>
@@ -72165,9 +72176,9 @@
         <v>0.99743714062716904</v>
       </c>
     </row>
-    <row r="148" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:161">
       <c r="A148" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B148">
         <v>0.994753950360585</v>
@@ -72650,9 +72661,9 @@
         <v>0.99658207695416301</v>
       </c>
     </row>
-    <row r="149" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:161">
       <c r="A149" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B149">
         <v>0.99267612611892797</v>
@@ -73135,9 +73146,9 @@
         <v>0.99440248363688799</v>
       </c>
     </row>
-    <row r="150" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:161">
       <c r="A150" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B150">
         <v>0.99609711568454495</v>
@@ -73620,9 +73631,9 @@
         <v>0.99782504151038398</v>
       </c>
     </row>
-    <row r="151" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:161">
       <c r="A151" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B151">
         <v>0.996031469943232</v>
@@ -74105,9 +74116,9 @@
         <v>0.99778031202593098</v>
       </c>
     </row>
-    <row r="152" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:161">
       <c r="A152" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B152">
         <v>0.99700687837624202</v>
@@ -74590,9 +74601,9 @@
         <v>0.99625909665358603</v>
       </c>
     </row>
-    <row r="153" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:161">
       <c r="A153" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B153">
         <v>0.99713694353536397</v>
@@ -75075,9 +75086,9 @@
         <v>0.99646790943930696</v>
       </c>
     </row>
-    <row r="154" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:161">
       <c r="A154" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B154">
         <v>0.99755291930563394</v>
@@ -75560,9 +75571,9 @@
         <v>0.99703120417097901</v>
       </c>
     </row>
-    <row r="155" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:161">
       <c r="A155" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B155">
         <v>0.99796765492331696</v>
@@ -76045,9 +76056,9 @@
         <v>0.99729802295519698</v>
       </c>
     </row>
-    <row r="156" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:161">
       <c r="A156" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B156">
         <v>0.99705170677517496</v>
@@ -76530,9 +76541,9 @@
         <v>0.99635656737720202</v>
       </c>
     </row>
-    <row r="157" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:161">
       <c r="A157" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B157">
         <v>0.99682495387232695</v>
@@ -77015,9 +77026,9 @@
         <v>0.99610692364366904</v>
       </c>
     </row>
-    <row r="158" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:161">
       <c r="A158" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B158">
         <v>0.99544007585217098</v>
@@ -77500,9 +77511,9 @@
         <v>0.997091729482252</v>
       </c>
     </row>
-    <row r="159" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:161">
       <c r="A159" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B159">
         <v>0.99504555371570502</v>
@@ -77985,9 +77996,9 @@
         <v>0.99699437164154303</v>
       </c>
     </row>
-    <row r="160" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:161">
       <c r="A160" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B160">
         <v>0.99606292489951398</v>
@@ -78470,9 +78481,9 @@
         <v>0.99780723442029695</v>
       </c>
     </row>
-    <row r="161" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:161">
       <c r="A161" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B161">
         <v>0.99705665359462803</v>
@@ -78964,22 +78975,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0E69C5-125C-4BE0-8A20-5B2836CA27F1}">
   <dimension ref="A1:B161"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="68.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -78987,7 +79000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -78995,7 +79008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -79003,7 +79016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -79011,7 +79024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -79019,7 +79032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -79027,7 +79040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -79035,7 +79048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -79043,7 +79056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -79051,7 +79064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -79059,7 +79072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -79067,7 +79080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -79075,7 +79088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -79083,7 +79096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -79091,7 +79104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -79099,7 +79112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -79107,7 +79120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -79115,7 +79128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -79123,7 +79136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -79131,7 +79144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -79139,7 +79152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -79147,7 +79160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -79155,7 +79168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -79163,7 +79176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -79171,7 +79184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -79179,7 +79192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -79187,7 +79200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -79195,7 +79208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -79203,7 +79216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -79211,7 +79224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -79219,7 +79232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>73</v>
       </c>
@@ -79227,655 +79240,655 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>25</v>
       </c>
@@ -79883,7 +79896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>26</v>
       </c>
@@ -79891,7 +79904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>27</v>
       </c>
@@ -79899,7 +79912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>28</v>
       </c>
@@ -79907,7 +79920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>29</v>
       </c>
@@ -79915,7 +79928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>30</v>
       </c>
@@ -79923,7 +79936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>31</v>
       </c>
@@ -79931,7 +79944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>32</v>
       </c>
@@ -79939,7 +79952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>33</v>
       </c>
@@ -79947,7 +79960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>34</v>
       </c>
@@ -79955,7 +79968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>35</v>
       </c>
@@ -79963,7 +79976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>36</v>
       </c>
@@ -79971,7 +79984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>37</v>
       </c>
@@ -79979,7 +79992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>38</v>
       </c>
@@ -79987,7 +80000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>39</v>
       </c>
@@ -79995,7 +80008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>40</v>
       </c>
@@ -80003,7 +80016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>41</v>
       </c>
@@ -80011,7 +80024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>42</v>
       </c>
@@ -80019,7 +80032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>43</v>
       </c>
@@ -80027,7 +80040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>44</v>
       </c>
@@ -80035,7 +80048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>45</v>
       </c>
@@ -80043,7 +80056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>46</v>
       </c>
@@ -80051,7 +80064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>47</v>
       </c>
@@ -80059,7 +80072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>48</v>
       </c>
@@ -80067,7 +80080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>49</v>
       </c>
@@ -80075,7 +80088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>50</v>
       </c>
@@ -80083,7 +80096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>51</v>
       </c>
@@ -80091,7 +80104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>52</v>
       </c>
@@ -80099,7 +80112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>53</v>
       </c>
@@ -80107,7 +80120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>54</v>
       </c>
@@ -80115,7 +80128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>55</v>
       </c>
@@ -80123,7 +80136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>56</v>
       </c>
@@ -80131,7 +80144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>57</v>
       </c>
@@ -80139,7 +80152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>58</v>
       </c>
@@ -80147,7 +80160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>59</v>
       </c>
@@ -80155,7 +80168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>60</v>
       </c>
@@ -80163,7 +80176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>61</v>
       </c>
@@ -80171,7 +80184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>62</v>
       </c>
@@ -80179,7 +80192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>63</v>
       </c>
@@ -80187,7 +80200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>64</v>
       </c>
@@ -80195,7 +80208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>66</v>
       </c>
@@ -80203,7 +80216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>67</v>
       </c>
@@ -80211,7 +80224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>68</v>
       </c>
@@ -80219,47 +80232,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="B157">
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B158">
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B159">
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B160">
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B161">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B161">
+    <sortCondition ref="B2:B161"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -80270,35 +80286,35 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -80321,10 +80337,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
